--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -783,7 +783,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>626</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nhấn đồng tiền</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>628</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nguyễn thị lệ trang</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -657,7 +829,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -667,7 +839,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="24">
@@ -677,7 +849,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="25">
@@ -727,7 +899,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30">
@@ -777,7 +949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1117142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -787,7 +959,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1117142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1117142.857142857</v>
+        <v>-3882857.142857143</v>
       </c>
     </row>
     <row r="35">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1117142.857142857</v>
+        <v>-3882857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,6 +605,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>652</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -829,7 +958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -839,7 +968,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="24">
@@ -849,7 +978,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>857142.8571428573</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="25">
@@ -909,7 +1038,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31">
@@ -919,7 +1048,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5000000</v>
+        <v>-5600000</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +1078,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
     <row r="35">
@@ -959,7 +1088,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,20 +578,63 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">triệu tú kiều </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1071,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30">
@@ -1078,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
     <row r="35">
@@ -1088,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>350000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="24">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1428571.428571429</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
     <row r="25">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>770000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="24">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3142857.142857143</v>
+        <v>3571428.571428572</v>
       </c>
     </row>
     <row r="25">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5600000</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="32">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1537142.857142857</v>
+        <v>-403571.4285714282</v>
       </c>
     </row>
     <row r="35">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1537142.857142857</v>
+        <v>-403571.4285714282</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>875000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="24">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3571428.571428572</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="25">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-403571.4285714282</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
     <row r="35">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-403571.4285714282</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 8-2024.xlsx
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>910000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="24">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3714285.714285715</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="25">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-225714.2857142854</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="35">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-225714.2857142854</v>
+        <v>130000</v>
       </c>
     </row>
   </sheetData>
